--- a/data/time_window.xlsx
+++ b/data/time_window.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NetOptimize\py-ga-VRPTW\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm_project\NetOptimize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E16E154-6E8E-4C62-BB85-86DD29B637FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12AF6DD-4767-46A4-AAC3-A3EE4168CAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -127,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +150,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,12 +438,12 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -543,26 +554,26 @@
       <c r="O2" s="5">
         <v>37</v>
       </c>
-      <c r="P2" s="5">
-        <v>0</v>
+      <c r="P2" s="6">
+        <v>36</v>
       </c>
       <c r="Q2" s="5">
-        <v>39</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R2" s="6">
+        <v>41</v>
       </c>
       <c r="S2" s="5">
         <v>0</v>
       </c>
-      <c r="T2" s="5">
-        <v>40</v>
+      <c r="T2" s="6">
+        <v>0</v>
       </c>
       <c r="U2" s="5">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -618,16 +629,16 @@
         <v>0</v>
       </c>
       <c r="S3" s="5">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="T3" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -667,32 +678,32 @@
       <c r="M4" s="5">
         <v>30</v>
       </c>
-      <c r="N4" s="5">
-        <v>37</v>
+      <c r="N4" s="6">
+        <v>0</v>
       </c>
       <c r="O4" s="5">
         <v>38</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
+      <c r="P4" s="6">
+        <v>37</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <v>41</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <v>38</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -739,25 +750,25 @@
         <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="5">
         <v>44</v>
       </c>
-      <c r="R5" s="5">
-        <v>0</v>
+      <c r="R5" s="6">
+        <v>40</v>
       </c>
       <c r="S5" s="5">
         <v>0</v>
       </c>
-      <c r="T5" s="5">
-        <v>0</v>
+      <c r="T5" s="6">
+        <v>41</v>
       </c>
       <c r="U5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -800,8 +811,8 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="O6" s="5">
-        <v>0</v>
+      <c r="O6" s="6">
+        <v>38</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -816,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
         <v>42</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_window.xlsx
+++ b/data/time_window.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycharm_project\NetOptimize\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject\Python\NetOptimize\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12AF6DD-4767-46A4-AAC3-A3EE4168CAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3837305B-B3A1-4D39-A4A1-C98B20DFB86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -135,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,9 +146,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -435,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -513,34 +509,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5">
         <v>28</v>
       </c>
       <c r="D2" s="5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2" s="5">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>30</v>
-      </c>
-      <c r="F2" s="5">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>29</v>
       </c>
       <c r="L2" s="5">
         <v>35</v>
@@ -554,23 +550,23 @@
       <c r="O2" s="5">
         <v>37</v>
       </c>
-      <c r="P2" s="6">
-        <v>36</v>
+      <c r="P2" s="5">
+        <v>38</v>
       </c>
       <c r="Q2" s="5">
         <v>0</v>
       </c>
-      <c r="R2" s="6">
-        <v>41</v>
+      <c r="R2" s="5">
+        <v>43</v>
       </c>
       <c r="S2" s="5">
         <v>0</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>0</v>
       </c>
       <c r="U2" s="5">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -578,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C3" s="5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -596,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K3" s="5">
         <v>0</v>
@@ -614,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="5">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O3" s="5">
         <v>0</v>
@@ -632,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="U3" s="5">
         <v>0</v>
@@ -643,19 +639,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5">
         <v>0</v>
@@ -676,16 +672,16 @@
         <v>0</v>
       </c>
       <c r="M4" s="5">
-        <v>30</v>
-      </c>
-      <c r="N4" s="6">
+        <v>38</v>
+      </c>
+      <c r="N4" s="5">
         <v>0</v>
       </c>
       <c r="O4" s="5">
-        <v>38</v>
-      </c>
-      <c r="P4" s="6">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="P4" s="5">
+        <v>41</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
@@ -693,13 +689,13 @@
       <c r="R4" s="5">
         <v>0</v>
       </c>
-      <c r="S4" s="6">
-        <v>38</v>
+      <c r="S4" s="5">
+        <v>47</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="5">
         <v>45</v>
       </c>
     </row>
@@ -708,13 +704,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
       <c r="D5" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -723,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H5" s="5">
         <v>0</v>
@@ -738,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="L5" s="5">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M5" s="5">
         <v>0</v>
       </c>
       <c r="N5" s="5">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O5" s="5">
         <v>0</v>
@@ -753,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="Q5" s="5">
-        <v>44</v>
-      </c>
-      <c r="R5" s="6">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="R5" s="5">
+        <v>47</v>
       </c>
       <c r="S5" s="5">
         <v>0</v>
       </c>
-      <c r="T5" s="6">
-        <v>41</v>
+      <c r="T5" s="5">
+        <v>46</v>
       </c>
       <c r="U5" s="5">
         <v>0</v>
@@ -776,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D6" s="5">
         <v>0</v>
@@ -794,13 +790,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="5">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="K6" s="5">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -811,8 +807,8 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
-        <v>38</v>
+      <c r="O6" s="5">
+        <v>40</v>
       </c>
       <c r="P6" s="5">
         <v>0</v>
@@ -830,8 +826,118 @@
         <v>0</v>
       </c>
       <c r="U6" s="5">
-        <v>42</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
